--- a/execution times.xlsx
+++ b/execution times.xlsx
@@ -1062,6 +1062,208 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="124638336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ASM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>182.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>343.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3554.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4852</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3677.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>C#</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>543.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>791.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4866</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3836.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3379.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="129614976"/>
+        <c:axId val="131255680"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="129614976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="131255680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="131255680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="129614976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1237,6 +1439,41 @@
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2023,7 +2260,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C6" sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2096,5 +2333,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>